--- a/ADSP/Useful/I_U_Values.xlsx
+++ b/ADSP/Useful/I_U_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\Updates\Repo\Electricity-Consumption-Meter\ADSP\Useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539F3412-6F40-4FB9-8C95-6AB391859CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4D23F-4FF0-4E8D-9260-8CB54D81F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>I (measured and normed</t>
+  </si>
+  <si>
+    <t>I (computed)</t>
+  </si>
+  <si>
+    <t>u (measured and normed</t>
+  </si>
+  <si>
+    <t>U (real input)</t>
+  </si>
+  <si>
+    <t>y = 16.385x - 9.1608</t>
+  </si>
+  <si>
+    <t>Real current = f(measured current)</t>
+  </si>
+  <si>
+    <t>y = 248.55x + 1.6886</t>
+  </si>
+  <si>
+    <t>Real voltage = f(measured voltage)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,216 +375,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0.59035099999999996</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E2" s="1">
+        <v>0.84020600000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0.59088300000000005</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>0.39285700000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="E3" s="1">
+        <v>0.87628899999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0.59138900000000005</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>0.41071400000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E4" s="1">
+        <v>0.91752599999999995</v>
+      </c>
+      <c r="F4" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.59199599999999997</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>0.42857099999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E5" s="1">
+        <v>0.95876300000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.59280600000000006</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>0.44642900000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0.60547799999999996</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0.60718399999999995</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.78571400000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>0.60900600000000005</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>0.82142899999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>0.61072700000000002</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>0.85714299999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>0.61255000000000004</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>0.89285700000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>0.64599200000000001</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0.65026499999999998</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>1.571429</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>0.65446599999999999</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>1.642857</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>0.658111</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>1.714286</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>0.66317400000000004</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>1.785714</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>0.73667499999999997</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>0.74569099999999999</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>3.1428569999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>0.754297</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>3.285714</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>0.763409</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>3.4285709999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>0.77247100000000002</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>3.5714290000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>0.92667100000000002</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>0.94486000000000003</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>6.2857139999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0.96327200000000002</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>6.5714290000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>0.98109199999999996</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>6.8571429999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>7.1428570000000002</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ADSP/Useful/I_U_Values.xlsx
+++ b/ADSP/Useful/I_U_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\Updates\Repo\Electricity-Consumption-Meter\ADSP\Useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4D23F-4FF0-4E8D-9260-8CB54D81F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DC5214-B046-4D17-AA91-470F9D3E7EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
